--- a/biology/Botanique/Roystonea_regia/Roystonea_regia.xlsx
+++ b/biology/Botanique/Roystonea_regia/Roystonea_regia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Palmier royal
 Roystonea regia, communément appelé palmier royal ou palmier royal de Cuba, est une espèce de palmiers appartenant au genre Roystonea.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce palmier pousse jusqu'à une hauteur de 20-25 m environ[1]. Assez svelte, au tronc presque lisse, il a un port élégant qui justifie son nom ainsi que son utilisation décorative dans les zones tropicales touristiques. Le manchon foliaire, lisse et vert, est assez long (environ 2 m[1]).
-Les feuilles, dressées ou légèrement retombantes, mesurent jusqu'à 3,5 m de long[1]. Les fleurs blanc-jaunâtre poussent en grande inflorescence très ramifiée portée par la base du manchon foliaire. Elles donnent des fruits rouges, tirant sur le noir à maturité, de forme globuleuse et d'environ 1 cm de diamètre[1]. C'est à maturité que ces fruits sont comestibles[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce palmier pousse jusqu'à une hauteur de 20-25 m environ. Assez svelte, au tronc presque lisse, il a un port élégant qui justifie son nom ainsi que son utilisation décorative dans les zones tropicales touristiques. Le manchon foliaire, lisse et vert, est assez long (environ 2 m).
+Les feuilles, dressées ou légèrement retombantes, mesurent jusqu'à 3,5 m de long. Les fleurs blanc-jaunâtre poussent en grande inflorescence très ramifiée portée par la base du manchon foliaire. Elles donnent des fruits rouges, tirant sur le noir à maturité, de forme globuleuse et d'environ 1 cm de diamètre. C'est à maturité que ces fruits sont comestibles.
 			Inflorescence
 			Infrutescence
 </t>
@@ -546,9 +560,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Originaire de Cuba[1], il a été importé en grande quantité en Floride dans les années 1920[réf. nécessaire], et y est maintenant une espèce de palmiers courante. On le rencontre généralement dans toutes les Caraïbes et au Honduras, ainsi que dans les régions touristiques de la plupart des pays tropicaux, y compris dans le bassin indo-pacifique.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire de Cuba, il a été importé en grande quantité en Floride dans les années 1920[réf. nécessaire], et y est maintenant une espèce de palmiers courante. On le rencontre généralement dans toutes les Caraïbes et au Honduras, ainsi que dans les régions touristiques de la plupart des pays tropicaux, y compris dans le bassin indo-pacifique.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbre est utilisé en régions tropicales pour décorer parcs et jardins, ou pour border des voies de circulation ou des places.
 			En bordure de route, île de Maui, Hawaii.
@@ -610,7 +628,9 @@
           <t>Espèce proche</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Adonidia merrillii ou Veitchia merrillii ou Normanbya merrillii. Comme son nom vernaculaire l'indique, les proportions de ce palmier royal nain rappellent celles du palmier royal. Néanmoins, il ne dépasse guère 5 m de hauteur et 15 cm de diamètre.
 Ses fruits sont ovales de 3 cm de long et de couleur rouge cramoisi à maturité.
